--- a/Building Characteristics.xlsx
+++ b/Building Characteristics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Documents\ZHAW\EVA_DMBEM\Group Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Documents\GitHub\DMBEM-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B1869A-8875-43A1-B9CE-857EC72C6FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73636394-4470-4587-A43A-EE661D2ABB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AD515140-1401-474E-BFE0-96FA6661CFBA}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
-    <t>Element Code</t>
-  </si>
-  <si>
     <t>W1</t>
   </si>
   <si>
@@ -72,39 +69,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>Length (m)</t>
-  </si>
-  <si>
-    <t>Height (m)</t>
-  </si>
-  <si>
-    <t>Surface (m2)</t>
-  </si>
-  <si>
-    <t>Width (m)</t>
-  </si>
-  <si>
-    <t>Element Type</t>
-  </si>
-  <si>
-    <t>Material 1</t>
-  </si>
-  <si>
-    <t>Material 2</t>
-  </si>
-  <si>
-    <t>Material 3</t>
-  </si>
-  <si>
-    <t>Thickness 1 (m)</t>
-  </si>
-  <si>
-    <t>Thickness 2 (m)</t>
-  </si>
-  <si>
-    <t>Thickness 3 (m)</t>
-  </si>
-  <si>
     <t>Wood</t>
   </si>
   <si>
@@ -114,9 +78,6 @@
     <t>Slope</t>
   </si>
   <si>
-    <t>Volume (m3)</t>
-  </si>
-  <si>
     <t>SinG</t>
   </si>
   <si>
@@ -130,6 +91,45 @@
   </si>
   <si>
     <t>Azimuth</t>
+  </si>
+  <si>
+    <t>Element_Type</t>
+  </si>
+  <si>
+    <t>Element_Code</t>
+  </si>
+  <si>
+    <t>Material_1</t>
+  </si>
+  <si>
+    <t>Material_2</t>
+  </si>
+  <si>
+    <t>Material_3</t>
+  </si>
+  <si>
+    <t>Length_m</t>
+  </si>
+  <si>
+    <t>Width_m</t>
+  </si>
+  <si>
+    <t>Height_m</t>
+  </si>
+  <si>
+    <t>Thickness_1_m</t>
+  </si>
+  <si>
+    <t>Thickness_2_m</t>
+  </si>
+  <si>
+    <t>Thickness_3_m</t>
+  </si>
+  <si>
+    <t>Surface_m2</t>
+  </si>
+  <si>
+    <t>Volume_m3</t>
   </si>
 </sst>
 </file>
@@ -485,16 +485,15 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
@@ -505,69 +504,69 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -582,14 +581,14 @@
         <v>0.1</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L2">
         <f>G2*H2</f>
         <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N2">
         <v>90</v>
@@ -600,25 +599,25 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -630,14 +629,14 @@
         <v>0.1</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L3">
         <f>F3*H3</f>
         <v>9</v>
       </c>
       <c r="M3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N3">
         <v>90</v>
@@ -648,22 +647,22 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -678,14 +677,14 @@
         <v>0.1</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4">
         <f>H4*G4</f>
         <v>6</v>
       </c>
       <c r="M4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>90</v>
@@ -696,25 +695,25 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -723,17 +722,17 @@
         <v>0.1</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L5">
         <f>H5*F5</f>
         <v>9</v>
       </c>
       <c r="M5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>90</v>
@@ -744,19 +743,19 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -774,7 +773,7 @@
         <v>0.4</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <f>F6*G6</f>
@@ -793,19 +792,19 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -823,14 +822,14 @@
         <v>0.3</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7">
         <f>F7*G7</f>
         <v>6</v>
       </c>
       <c r="M7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N7">
         <v>0</v>

--- a/Building Characteristics.xlsx
+++ b/Building Characteristics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Documents\GitHub\DMBEM-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD046213-725F-433E-A6D2-87F28C842CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C2EA49-E22F-4364-81D2-8B9A6B79F5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AD515140-1401-474E-BFE0-96FA6661CFBA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>W1</t>
   </si>
@@ -484,7 +484,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22378C7-BEBB-44C6-ACEE-376CBFA0A07A}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -585,8 +587,9 @@
         <f>G2*H2</f>
         <v>6</v>
       </c>
-      <c r="M2" t="s">
-        <v>10</v>
+      <c r="M2">
+        <f>F6*G6*H6</f>
+        <v>18</v>
       </c>
       <c r="N2">
         <v>90</v>
@@ -633,9 +636,6 @@
         <f>F3*H3</f>
         <v>9</v>
       </c>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
       <c r="N3">
         <v>90</v>
       </c>
@@ -681,9 +681,6 @@
         <f>H4*G4</f>
         <v>6</v>
       </c>
-      <c r="M4" t="s">
-        <v>10</v>
-      </c>
       <c r="N4">
         <v>90</v>
       </c>
@@ -728,9 +725,6 @@
       <c r="L5">
         <f>H5*F5</f>
         <v>9</v>
-      </c>
-      <c r="M5" t="s">
-        <v>10</v>
       </c>
       <c r="N5">
         <v>90</v>
@@ -777,10 +771,6 @@
         <f>F6*G6</f>
         <v>6</v>
       </c>
-      <c r="M6">
-        <f>F6*G6*H6</f>
-        <v>18</v>
-      </c>
       <c r="N6">
         <v>0</v>
       </c>
@@ -825,9 +815,6 @@
       <c r="L7">
         <f>F7*G7</f>
         <v>6</v>
-      </c>
-      <c r="M7" t="s">
-        <v>10</v>
       </c>
       <c r="N7">
         <v>0</v>

--- a/Building Characteristics.xlsx
+++ b/Building Characteristics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Documents\GitHub\DMBEM-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C2EA49-E22F-4364-81D2-8B9A6B79F5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA43FC2-3CAC-417D-9631-9E564C262386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AD515140-1401-474E-BFE0-96FA6661CFBA}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>Slope</t>
   </si>
   <si>
-    <t>SinG</t>
-  </si>
-  <si>
     <t>Suspended Floor</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>Volume</t>
+  </si>
+  <si>
+    <t>DG</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -504,49 +504,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -603,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -648,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -693,7 +693,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -738,7 +738,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -783,7 +783,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>

--- a/Building Characteristics.xlsx
+++ b/Building Characteristics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Documents\GitHub\DMBEM-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellio\Documents\GitHub\DMBEM-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA43FC2-3CAC-417D-9631-9E564C262386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B42C10-993E-4C13-ABAE-FA7974C3FF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AD515140-1401-474E-BFE0-96FA6661CFBA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD515140-1401-474E-BFE0-96FA6661CFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>W1</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>DG</t>
+  </si>
+  <si>
+    <t>R2</t>
   </si>
 </sst>
 </file>
@@ -186,7 +189,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -482,27 +485,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22378C7-BEBB-44C6-ACEE-376CBFA0A07A}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -549,7 +551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -588,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="M2">
-        <f>F6*G6*H6</f>
+        <f>F8*G8*H8</f>
         <v>18</v>
       </c>
       <c r="N2">
@@ -598,7 +600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -643,7 +645,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -688,7 +690,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -733,18 +735,18 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -759,10 +761,10 @@
         <v>3</v>
       </c>
       <c r="I6">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J6">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
@@ -772,15 +774,15 @@
         <v>6</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -817,9 +819,54 @@
         <v>6</v>
       </c>
       <c r="N7">
+        <v>45</v>
+      </c>
+      <c r="O7">
         <v>0</v>
       </c>
-      <c r="O7">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>0.1</v>
+      </c>
+      <c r="J8">
+        <v>0.4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <f>F8*G8</f>
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>0</v>
       </c>
     </row>

--- a/Building Characteristics.xlsx
+++ b/Building Characteristics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellio\Documents\GitHub\DMBEM-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leni\Nextcloud\Lena\ZHAW\HS 21\EVA_DMBEM\DMBEM-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B42C10-993E-4C13-ABAE-FA7974C3FF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A01F407-E572-496E-B1D7-39682EBAF8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD515140-1401-474E-BFE0-96FA6661CFBA}"/>
+    <workbookView xWindow="11496" yWindow="24" windowWidth="11544" windowHeight="12480" xr2:uid="{AD515140-1401-474E-BFE0-96FA6661CFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
   <si>
     <t>W1</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>R2</t>
+  </si>
+  <si>
+    <t>W4</t>
   </si>
 </sst>
 </file>
@@ -189,7 +192,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -485,13 +488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22378C7-BEBB-44C6-ACEE-376CBFA0A07A}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
@@ -590,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="M2">
-        <f>F8*G8*H8</f>
+        <f>F9*G9*H9</f>
         <v>18</v>
       </c>
       <c r="N2">
@@ -692,16 +695,16 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -718,15 +721,15 @@
       <c r="I5">
         <v>0.1</v>
       </c>
-      <c r="J5" t="s">
-        <v>10</v>
+      <c r="J5">
+        <v>0.1</v>
       </c>
       <c r="K5" t="s">
         <v>10</v>
       </c>
       <c r="L5">
-        <f>H5*F5</f>
-        <v>9</v>
+        <f>F5*H5 - L6</f>
+        <v>2.75</v>
       </c>
       <c r="N5">
         <v>90</v>
@@ -737,52 +740,52 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
+        <v>2.5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="I6">
-        <v>0.3</v>
-      </c>
-      <c r="J6">
-        <v>0.3</v>
+        <v>0.1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>10</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
       </c>
       <c r="L6">
-        <f>F6*G6</f>
-        <v>6</v>
+        <f>H6*F6</f>
+        <v>6.25</v>
       </c>
       <c r="N6">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="O6">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -822,21 +825,21 @@
         <v>45</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -851,10 +854,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J8">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K8" t="s">
         <v>10</v>
@@ -864,9 +867,54 @@
         <v>6</v>
       </c>
       <c r="N8">
+        <v>45</v>
+      </c>
+      <c r="O8">
         <v>0</v>
       </c>
-      <c r="O8">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>0.1</v>
+      </c>
+      <c r="J9">
+        <v>0.4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <f>F9*G9</f>
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>0</v>
       </c>
     </row>

--- a/Building Characteristics.xlsx
+++ b/Building Characteristics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leni\Nextcloud\Lena\ZHAW\HS 21\EVA_DMBEM\DMBEM-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A01F407-E572-496E-B1D7-39682EBAF8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488B3B51-9949-4AE6-BCE8-B74147190FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11496" yWindow="24" windowWidth="11544" windowHeight="12480" xr2:uid="{AD515140-1401-474E-BFE0-96FA6661CFBA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{AD515140-1401-474E-BFE0-96FA6661CFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>W1</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>W4</t>
+  </si>
+  <si>
+    <t>Soil</t>
   </si>
 </sst>
 </file>
@@ -490,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22378C7-BEBB-44C6-ACEE-376CBFA0A07A}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,8 +596,8 @@
         <v>6</v>
       </c>
       <c r="M2">
-        <f>F9*G9*H9</f>
-        <v>18</v>
+        <f>F9*G9*H9+M7+M8</f>
+        <v>21</v>
       </c>
       <c r="N2">
         <v>90</v>
@@ -805,8 +808,8 @@
       <c r="G7">
         <v>2</v>
       </c>
-      <c r="H7">
-        <v>3</v>
+      <c r="H7" t="s">
+        <v>10</v>
       </c>
       <c r="I7">
         <v>0.3</v>
@@ -818,8 +821,12 @@
         <v>10</v>
       </c>
       <c r="L7">
-        <f>F7*G7</f>
-        <v>6</v>
+        <f>(G7/2)/COS(RADIANS(N7))</f>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="M7">
+        <f>((G7/2)/TAN(RADIANS(N7)))^2 * F7/2</f>
+        <v>1.5000000000000007</v>
       </c>
       <c r="N7">
         <v>45</v>
@@ -850,8 +857,8 @@
       <c r="G8">
         <v>2</v>
       </c>
-      <c r="H8">
-        <v>3</v>
+      <c r="H8" t="s">
+        <v>10</v>
       </c>
       <c r="I8">
         <v>0.3</v>
@@ -863,8 +870,12 @@
         <v>10</v>
       </c>
       <c r="L8">
-        <f>F8*G8</f>
-        <v>6</v>
+        <f>(G8/2)/COS(RADIANS(N8))</f>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="M8">
+        <f>((G8/2)/TAN(RADIANS(N8)))^2 * F8/2</f>
+        <v>1.5000000000000007</v>
       </c>
       <c r="N8">
         <v>45</v>
@@ -887,7 +898,7 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -904,7 +915,7 @@
       <c r="J9">
         <v>0.4</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9">
         <v>10</v>
       </c>
       <c r="L9">

--- a/Building Characteristics.xlsx
+++ b/Building Characteristics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leni\Nextcloud\Lena\ZHAW\HS 21\EVA_DMBEM\DMBEM-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488B3B51-9949-4AE6-BCE8-B74147190FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7319A828-78F6-45D5-A1C4-8CACB2F033D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{AD515140-1401-474E-BFE0-96FA6661CFBA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
   <si>
     <t>W1</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>Soil</t>
+  </si>
+  <si>
+    <t>Mesh_1</t>
+  </si>
+  <si>
+    <t>Mesh_2</t>
+  </si>
+  <si>
+    <t>Mesh_3</t>
   </si>
 </sst>
 </file>
@@ -491,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22378C7-BEBB-44C6-ACEE-376CBFA0A07A}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,7 +519,7 @@
     <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -556,8 +565,17 @@
       <c r="O1" t="s">
         <v>17</v>
       </c>
+      <c r="P1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -605,8 +623,17 @@
       <c r="O2">
         <v>0</v>
       </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -650,8 +677,17 @@
       <c r="O3">
         <v>-90</v>
       </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -695,8 +731,17 @@
       <c r="O4">
         <v>180</v>
       </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -740,8 +785,17 @@
       <c r="O5">
         <v>90</v>
       </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -785,8 +839,17 @@
       <c r="O6">
         <v>90</v>
       </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -834,8 +897,17 @@
       <c r="O7">
         <v>180</v>
       </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -883,8 +955,17 @@
       <c r="O8">
         <v>0</v>
       </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -927,6 +1008,15 @@
       </c>
       <c r="O9">
         <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Building Characteristics.xlsx
+++ b/Building Characteristics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leni\Nextcloud\Lena\ZHAW\HS 21\EVA_DMBEM\DMBEM-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7319A828-78F6-45D5-A1C4-8CACB2F033D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1369673F-63FC-4745-8538-E70304A7B566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{AD515140-1401-474E-BFE0-96FA6661CFBA}"/>
   </bookViews>
@@ -503,7 +503,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -973,10 +973,10 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
         <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
